--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_10.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_10.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01244521141052246</v>
+        <v>0.027191162109375</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003149509429931641</v>
+        <v>0.0005810260772705078</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003320932388305664</v>
+        <v>0.007598876953125</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.6369164688456465</v>
+        <v>0.6368400434550001</v>
       </c>
     </row>
     <row r="100">
@@ -1154,23 +1154,23 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-18</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1180,90 +1180,100 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.02014684677124023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.04509115219116211</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_10.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_ising_model_10.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.027191162109375</v>
+        <v>0.0006818771362304688</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005810260772705078</v>
+        <v>0.0005259513854980469</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007598876953125</v>
+        <v>0.006538152694702148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 2), (0, 3), (1, 2), (1, 0), (1, 1), (1, 3), (2, 2), (2, 0)]</t>
+          <t>[[0, 0], [0, 1], [0, 2], [0, 3], [1, 2], [1, 0], [1, 1], [1, 3], [2, 2], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.04509115219116211</v>
+        <v>0.01400089263916016</v>
       </c>
     </row>
     <row r="106">
